--- a/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_rf_st.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_rf_st.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.488588476181031</v>
+        <v>7.99952335357666</v>
       </c>
       <c r="C2">
-        <v>0.9285582871174305</v>
+        <v>2.333387145111578</v>
       </c>
       <c r="D2">
-        <v>2.425335931777954</v>
+        <v>3.028503608703613</v>
       </c>
       <c r="E2">
-        <v>0.3742687626729885</v>
+        <v>0.9009267946987755</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.48431353569031</v>
+        <v>18.7979012966156</v>
       </c>
       <c r="C3">
-        <v>0.7366665058965741</v>
+        <v>0.4262347351114338</v>
       </c>
       <c r="D3">
-        <v>3.153399085998535</v>
+        <v>3.929339170455933</v>
       </c>
       <c r="E3">
-        <v>0.7148573342673008</v>
+        <v>0.3468043638241936</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.61205902099609</v>
+        <v>41.85542793273926</v>
       </c>
       <c r="C4">
-        <v>0.3777311728156907</v>
+        <v>1.159752212141232</v>
       </c>
       <c r="D4">
-        <v>3.15095591545105</v>
+        <v>4.161155843734742</v>
       </c>
       <c r="E4">
-        <v>0.4247239429056222</v>
+        <v>0.4578597654450963</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.37199401855469</v>
+        <v>16.52285041809082</v>
       </c>
       <c r="C5">
-        <v>1.967137596688197</v>
+        <v>2.801257537480455</v>
       </c>
       <c r="D5">
-        <v>3.12597918510437</v>
+        <v>4.000387525558471</v>
       </c>
       <c r="E5">
-        <v>0.8677681552933998</v>
+        <v>1.038220570202902</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.67658262252808</v>
+        <v>28.30479497909546</v>
       </c>
       <c r="C6">
-        <v>0.5347591545986716</v>
+        <v>0.8809492851221704</v>
       </c>
       <c r="D6">
-        <v>3.269459915161133</v>
+        <v>3.63185305595398</v>
       </c>
       <c r="E6">
-        <v>0.2695738539721219</v>
+        <v>0.8335252403813559</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.23070292472839</v>
+        <v>58.02223629951477</v>
       </c>
       <c r="C7">
-        <v>0.5294011139051151</v>
+        <v>0.5395019317839775</v>
       </c>
       <c r="D7">
-        <v>3.650033617019653</v>
+        <v>5.469671201705933</v>
       </c>
       <c r="E7">
-        <v>0.100546072383293</v>
+        <v>0.4238753822075353</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.02723255157471</v>
+        <v>21.11885547637939</v>
       </c>
       <c r="C8">
-        <v>1.98344043451977</v>
+        <v>1.55396478533373</v>
       </c>
       <c r="D8">
-        <v>3.862030935287476</v>
+        <v>4.333089017868042</v>
       </c>
       <c r="E8">
-        <v>0.9428599514881686</v>
+        <v>0.6173560172744401</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.47039356231689</v>
+        <v>35.79277296066284</v>
       </c>
       <c r="C9">
-        <v>0.479713435854781</v>
+        <v>0.6022878545712751</v>
       </c>
       <c r="D9">
-        <v>4.396334648132324</v>
+        <v>4.352147197723388</v>
       </c>
       <c r="E9">
-        <v>0.6769131451812865</v>
+        <v>0.5058676963071359</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>43.14338002204895</v>
+        <v>70.06023321151733</v>
       </c>
       <c r="C10">
-        <v>1.222381348492292</v>
+        <v>0.9616913827443475</v>
       </c>
       <c r="D10">
-        <v>4.155067014694214</v>
+        <v>5.130420064926147</v>
       </c>
       <c r="E10">
-        <v>0.7377448881677047</v>
+        <v>0.5409744459952558</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.24734263420105</v>
+        <v>19.8615246295929</v>
       </c>
       <c r="C11">
-        <v>1.299089810136993</v>
+        <v>0.8795764239695671</v>
       </c>
       <c r="D11">
-        <v>3.883571577072144</v>
+        <v>5.218908977508545</v>
       </c>
       <c r="E11">
-        <v>1.051635781652663</v>
+        <v>0.5282189444468773</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.08938436508179</v>
+        <v>27.70400614738464</v>
       </c>
       <c r="C12">
-        <v>0.4449360670451309</v>
+        <v>0.7845115739146896</v>
       </c>
       <c r="D12">
-        <v>3.018498420715332</v>
+        <v>4.031523704528809</v>
       </c>
       <c r="E12">
-        <v>0.285180995205311</v>
+        <v>0.4916979912494071</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>35.1424765586853</v>
+        <v>57.06225447654724</v>
       </c>
       <c r="C13">
-        <v>0.78946864535215</v>
+        <v>1.182107340918181</v>
       </c>
       <c r="D13">
-        <v>4.157330417633057</v>
+        <v>5.202855968475342</v>
       </c>
       <c r="E13">
-        <v>0.4038355865454379</v>
+        <v>0.3452398356559913</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.31286473274231</v>
+        <v>22.80786938667297</v>
       </c>
       <c r="C14">
-        <v>1.454820366591345</v>
+        <v>2.777804411909698</v>
       </c>
       <c r="D14">
-        <v>3.225233602523804</v>
+        <v>4.363559341430664</v>
       </c>
       <c r="E14">
-        <v>0.6517372570891891</v>
+        <v>0.9526280138954981</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.95490956306458</v>
+        <v>36.84953804016114</v>
       </c>
       <c r="C15">
-        <v>1.019319618460434</v>
+        <v>0.753763273575197</v>
       </c>
       <c r="D15">
-        <v>4.605245208740234</v>
+        <v>5.403986310958862</v>
       </c>
       <c r="E15">
-        <v>0.9392325125875433</v>
+        <v>0.5937840316299221</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50.44838304519654</v>
+        <v>78.06483278274536</v>
       </c>
       <c r="C16">
-        <v>1.370865841663741</v>
+        <v>0.8125744203362297</v>
       </c>
       <c r="D16">
-        <v>4.211945199966431</v>
+        <v>6.023192405700684</v>
       </c>
       <c r="E16">
-        <v>0.3604265057723356</v>
+        <v>0.2162429287786928</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.84104223251343</v>
+        <v>27.91608810424805</v>
       </c>
       <c r="C17">
-        <v>2.369150950543606</v>
+        <v>3.00741945158259</v>
       </c>
       <c r="D17">
-        <v>3.812162923812866</v>
+        <v>5.156910800933838</v>
       </c>
       <c r="E17">
-        <v>0.8404912496602477</v>
+        <v>0.6348904990096149</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.96428775787354</v>
+        <v>46.95403728485108</v>
       </c>
       <c r="C18">
-        <v>0.8185091115882576</v>
+        <v>1.389505856944218</v>
       </c>
       <c r="D18">
-        <v>4.803950595855713</v>
+        <v>5.38384165763855</v>
       </c>
       <c r="E18">
-        <v>0.6273047313969951</v>
+        <v>0.5919311703421812</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>59.00176529884338</v>
+        <v>91.97713117599487</v>
       </c>
       <c r="C19">
-        <v>2.54505824531324</v>
+        <v>1.770600619549424</v>
       </c>
       <c r="D19">
-        <v>3.825614356994629</v>
+        <v>5.580854082107544</v>
       </c>
       <c r="E19">
-        <v>1.05759161969107</v>
+        <v>0.650561628749447</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.50359163284302</v>
+        <v>20.43993849754333</v>
       </c>
       <c r="C20">
-        <v>0.685432551868478</v>
+        <v>0.9676844834409337</v>
       </c>
       <c r="D20">
-        <v>4.011881637573242</v>
+        <v>5.591282939910888</v>
       </c>
       <c r="E20">
-        <v>1.17916497147504</v>
+        <v>0.4098161446225755</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.97322554588318</v>
+        <v>30.83269033432007</v>
       </c>
       <c r="C21">
-        <v>0.4641806575622324</v>
+        <v>1.709567141021925</v>
       </c>
       <c r="D21">
-        <v>2.680708885192871</v>
+        <v>4.265275716781616</v>
       </c>
       <c r="E21">
-        <v>1.612837070486157</v>
+        <v>0.6881243376388443</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>36.19313125610351</v>
+        <v>58.13701148033142</v>
       </c>
       <c r="C22">
-        <v>1.984323694211494</v>
+        <v>0.8892941972218835</v>
       </c>
       <c r="D22">
-        <v>4.150622224807739</v>
+        <v>5.026070404052734</v>
       </c>
       <c r="E22">
-        <v>1.350859290817173</v>
+        <v>0.8152445638308864</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.22055230140686</v>
+        <v>23.58617939949036</v>
       </c>
       <c r="C23">
-        <v>0.554603481726503</v>
+        <v>2.451567819487984</v>
       </c>
       <c r="D23">
-        <v>3.200128555297852</v>
+        <v>4.014795017242432</v>
       </c>
       <c r="E23">
-        <v>0.3204287337894527</v>
+        <v>0.6431903359305453</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.62579951286316</v>
+        <v>38.21512784957886</v>
       </c>
       <c r="C24">
-        <v>1.094234429812851</v>
+        <v>0.8286027277300121</v>
       </c>
       <c r="D24">
-        <v>4.489389371871948</v>
+        <v>5.218811559677124</v>
       </c>
       <c r="E24">
-        <v>0.5794262212462457</v>
+        <v>0.5057941356273082</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>51.1035590171814</v>
+        <v>79.57066807746887</v>
       </c>
       <c r="C25">
-        <v>0.2540413966850267</v>
+        <v>1.912427186569519</v>
       </c>
       <c r="D25">
-        <v>3.826493406295776</v>
+        <v>5.310896682739258</v>
       </c>
       <c r="E25">
-        <v>0.4148354550121801</v>
+        <v>0.2917836021001633</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.60152359008789</v>
+        <v>28.41512517929077</v>
       </c>
       <c r="C26">
-        <v>3.804280308147356</v>
+        <v>3.187758144007948</v>
       </c>
       <c r="D26">
-        <v>3.954256677627563</v>
+        <v>5.290996789932251</v>
       </c>
       <c r="E26">
-        <v>1.18779311346643</v>
+        <v>0.7096326607178882</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>30.58808741569519</v>
+        <v>48.1034432888031</v>
       </c>
       <c r="C27">
-        <v>1.42609236586323</v>
+        <v>1.358815690169112</v>
       </c>
       <c r="D27">
-        <v>4.707036542892456</v>
+        <v>5.293578720092773</v>
       </c>
       <c r="E27">
-        <v>1.068813048265926</v>
+        <v>0.9740202696178857</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>47.58657813072205</v>
+        <v>75.83511166572571</v>
       </c>
       <c r="C28">
-        <v>6.144319979736506</v>
+        <v>9.095341018131858</v>
       </c>
       <c r="D28">
-        <v>1.827290821075439</v>
+        <v>2.24934458732605</v>
       </c>
       <c r="E28">
-        <v>1.132888490464568</v>
+        <v>1.205684702374188</v>
       </c>
       <c r="F28">
         <v>30</v>
